--- a/CustomPlots/velocity_tuning.xlsx
+++ b/CustomPlots/velocity_tuning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt\Documents\kVIS3_bsp_ardupilot\CustomPlots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82068257-5E19-49E9-A38B-5711823483A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B70010-5D5C-4B7B-8627-41D1E5A76DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="3795" windowWidth="19185" windowHeight="11985" xr2:uid="{BA9E8F30-6C98-CF4B-8E95-183011E815A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BA9E8F30-6C98-CF4B-8E95-183011E815A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>KSID Custom Plot Definition</t>
   </si>
@@ -111,9 +111,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>Velocity Tuning</t>
-  </si>
-  <si>
     <t>OF/flowX</t>
   </si>
   <si>
@@ -187,6 +184,21 @@
   </si>
   <si>
     <t>PE_{EKF2}</t>
+  </si>
+  <si>
+    <t>PN_{DES}</t>
+  </si>
+  <si>
+    <t>PE_{DES}</t>
+  </si>
+  <si>
+    <t>PSC/TPY</t>
+  </si>
+  <si>
+    <t>PSC/TPX</t>
+  </si>
+  <si>
+    <t>VelocityTuning</t>
   </si>
 </sst>
 </file>
@@ -550,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7D595D-48C5-5044-8E94-F6ADF0970571}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -588,7 +600,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <f>1920-200</f>
@@ -672,22 +684,22 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -707,22 +719,22 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -742,22 +754,22 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -777,19 +789,19 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
         <v>45</v>
       </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" t="s">
-        <v>46</v>
-      </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S9" t="s">
         <v>25</v>
@@ -812,19 +824,19 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S10" t="s">
         <v>25</v>
@@ -832,13 +844,13 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
@@ -847,22 +859,22 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="S11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -882,13 +894,13 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -897,7 +909,7 @@
         <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -917,27 +929,27 @@
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="R13" t="s">
+        <v>39</v>
+      </c>
+      <c r="S13" t="s">
         <v>32</v>
-      </c>
-      <c r="S13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -952,22 +964,22 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S14" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -987,21 +999,91 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
         <v>24</v>
       </c>
       <c r="K15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
         <v>49</v>
       </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="R15" t="s">
-        <v>51</v>
-      </c>
       <c r="S15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>50</v>
+      </c>
+      <c r="S16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>52</v>
+      </c>
+      <c r="S17" t="s">
         <v>25</v>
       </c>
     </row>

--- a/CustomPlots/velocity_tuning.xlsx
+++ b/CustomPlots/velocity_tuning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt\Documents\kVIS3_bsp_ardupilot\CustomPlots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B70010-5D5C-4B7B-8627-41D1E5A76DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B40DE-598B-4191-B32F-2928C8461A25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BA9E8F30-6C98-CF4B-8E95-183011E815A3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>KSID Custom Plot Definition</t>
   </si>
@@ -111,24 +111,15 @@
     <t>m</t>
   </si>
   <si>
-    <t>OF/flowX</t>
-  </si>
-  <si>
     <t>NKF1/VN</t>
   </si>
   <si>
-    <t>OF/flowY</t>
-  </si>
-  <si>
     <t>Vy~[~m/s~]</t>
   </si>
   <si>
     <t>Vx~[~m/s~]</t>
   </si>
   <si>
-    <t>VE_OF</t>
-  </si>
-  <si>
     <t>m/s</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
   </si>
   <si>
     <t>VN_{EKF1}</t>
-  </si>
-  <si>
-    <t>VN_{OF}</t>
   </si>
   <si>
     <t>NKF6/VN</t>
@@ -562,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7D595D-48C5-5044-8E94-F6ADF0970571}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -600,7 +588,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <f>1920-200</f>
@@ -684,22 +672,22 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -719,27 +707,27 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -754,22 +742,22 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -789,19 +777,19 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S9" t="s">
         <v>25</v>
@@ -824,19 +812,19 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="S10" t="s">
         <v>25</v>
@@ -844,13 +832,13 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
@@ -859,22 +847,22 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="S11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -894,27 +882,27 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="S12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -929,27 +917,27 @@
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="S13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -964,22 +952,22 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="S14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -999,91 +987,21 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
         <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" t="s">
-        <v>48</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="R16" t="s">
-        <v>50</v>
-      </c>
-      <c r="S16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="R17" t="s">
-        <v>52</v>
-      </c>
-      <c r="S17" t="s">
         <v>25</v>
       </c>
     </row>
